--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl3-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ccl3-Ackr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -77,6 +77,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>998.7379113333335</v>
+        <v>0.07287233333333333</v>
       </c>
       <c r="H2">
-        <v>2996.213734</v>
+        <v>0.218617</v>
       </c>
       <c r="I2">
-        <v>0.8754681532218018</v>
+        <v>0.0006119733110023554</v>
       </c>
       <c r="J2">
-        <v>0.8754681532218019</v>
+        <v>0.0006119733110023554</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>546.1984446785383</v>
+        <v>0.03985305321355555</v>
       </c>
       <c r="R2">
-        <v>4915.786002106845</v>
+        <v>0.358677478922</v>
       </c>
       <c r="S2">
-        <v>0.8754681532218018</v>
+        <v>0.0006119733110023554</v>
       </c>
       <c r="T2">
-        <v>0.8754681532218019</v>
+        <v>0.0006119733110023554</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>142.0664773333333</v>
+        <v>0.135447</v>
       </c>
       <c r="H3">
-        <v>426.199432</v>
+        <v>0.406341</v>
       </c>
       <c r="I3">
-        <v>0.1245318467781981</v>
+        <v>0.001137468024746511</v>
       </c>
       <c r="J3">
-        <v>0.1245318467781981</v>
+        <v>0.001137468024746511</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,16 +629,78 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>77.69454636685688</v>
+        <v>0.07407442923400001</v>
       </c>
       <c r="R3">
-        <v>699.250917301712</v>
+        <v>0.666669863106</v>
       </c>
       <c r="S3">
-        <v>0.1245318467781981</v>
+        <v>0.001137468024746511</v>
       </c>
       <c r="T3">
-        <v>0.1245318467781981</v>
+        <v>0.001137468024746511</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>118.8693136666667</v>
+      </c>
+      <c r="H4">
+        <v>356.607941</v>
+      </c>
+      <c r="I4">
+        <v>0.9982505586642512</v>
+      </c>
+      <c r="J4">
+        <v>0.9982505586642512</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.5468886666666667</v>
+      </c>
+      <c r="N4">
+        <v>1.640666</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>65.00828045874511</v>
+      </c>
+      <c r="R4">
+        <v>585.074524128706</v>
+      </c>
+      <c r="S4">
+        <v>0.9982505586642512</v>
+      </c>
+      <c r="T4">
+        <v>0.9982505586642512</v>
       </c>
     </row>
   </sheetData>
